--- a/stock/data/삼성바이오로직스.xlsx
+++ b/stock/data/삼성바이오로직스.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1818"/>
+  <dimension ref="A1:G1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42259,10 +42259,769 @@
         <v>831000</v>
       </c>
       <c r="F1818" t="n">
-        <v>48497</v>
+        <v>48645</v>
       </c>
       <c r="G1818" t="n">
         <v>-0.2400960384153661</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>838000</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>838000</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>816000</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>816000</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>56352</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>-1.805054151624549</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>813000</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>822000</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>810000</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>816000</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>42986</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>811000</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>824000</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>811000</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>812000</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>50722</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>-0.4901960784313725</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>816000</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>823000</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>812000</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>817000</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>34651</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>0.6157635467980296</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>812000</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>816000</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>804000</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>813000</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>39178</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>-0.4895960832313341</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>808000</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>821000</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>798000</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>815000</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>38397</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>0.2460024600246002</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>819000</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>821000</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>805000</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>805000</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>39596</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>-1.226993865030675</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>796000</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>803000</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>785000</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>795000</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>61233</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>-1.24223602484472</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>795000</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>801000</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>787000</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>790000</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>41353</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>-0.628930817610063</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>784000</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>794000</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>777000</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>793000</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>31597</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>0.3797468354430379</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>787000</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>794000</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>781000</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>785000</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>43773</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>-1.008827238335435</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>785000</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>787000</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>776000</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>776000</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>29827</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>-1.146496815286624</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>780000</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>797000</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>777000</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>790000</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>33200</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>1.804123711340206</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>784000</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>789000</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>770000</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>781000</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>55678</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>-1.139240506329114</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>790000</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>805000</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>788000</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>802000</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>59922</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>2.688860435339309</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>795000</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>800000</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>789000</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>791000</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>44112</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>-1.371571072319202</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>799000</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>804000</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>788000</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>790000</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>48667</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>-0.1264222503160556</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>783000</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>789000</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>775000</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>780000</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>68732</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>-1.265822784810127</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>779000</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>780000</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>769000</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>770000</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>82298</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>-1.282051282051282</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>775000</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>778000</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>768000</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>775000</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>90707</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>776000</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>787000</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>775000</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>781000</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>60733</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>777000</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>783000</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>774000</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>775000</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>49111</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>-0.7682458386683738</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>779000</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>781000</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>771000</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>771000</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>56064</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>-0.5161290322580645</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>777000</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>790000</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>777000</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>785000</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>87824</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>1.815823605706874</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>795000</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>803000</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>790000</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>791000</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>82414</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>0.7643312101910829</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>796000</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>796000</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>779000</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>781000</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>82989</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>-1.264222503160556</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>789000</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>794000</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>783000</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>787000</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>65984</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>0.7682458386683738</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>791000</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>794000</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>781000</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>35239</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>-0.7623888182973316</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>783000</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>789000</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>779000</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>781000</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>28625</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>786000</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>791000</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>781000</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>784000</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>65778</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>0.3841229193341869</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>783000</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>791000</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>782000</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>788000</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>45694</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>792000</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>793000</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>785000</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>790000</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>40399</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>0.2538071065989848</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>785000</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>787000</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>779000</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>779000</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>57404</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>-1.392405063291139</v>
       </c>
     </row>
   </sheetData>
